--- a/backend/uploads/otherstuff.xlsx
+++ b/backend/uploads/otherstuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willcheung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{222B046F-D8BE-0548-9186-554C23927E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC9394E-3636-6B44-B0C2-E841E9397193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3740" windowWidth="30240" windowHeight="17880" xr2:uid="{2B697BE8-DC1B-A146-84E2-63CCC18C7835}"/>
+    <workbookView xWindow="-34080" yWindow="4640" windowWidth="30240" windowHeight="17880" xr2:uid="{2B697BE8-DC1B-A146-84E2-63CCC18C7835}"/>
   </bookViews>
   <sheets>
     <sheet name="otherstuff" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Classroom</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>LectureID</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,9 +595,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -608,10 +614,13 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
@@ -625,10 +634,13 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
@@ -642,10 +654,13 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
@@ -659,10 +674,13 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
@@ -676,10 +694,13 @@
       <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
@@ -693,10 +714,13 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
@@ -710,10 +734,13 @@
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
     </row>
@@ -727,13 +754,15 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -761,10 +790,13 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
     </row>
@@ -778,10 +810,13 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2</v>
       </c>
     </row>
@@ -795,10 +830,13 @@
       <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
@@ -812,10 +850,13 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3</v>
       </c>
     </row>
@@ -829,10 +870,13 @@
       <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
     </row>
@@ -846,10 +890,13 @@
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2</v>
       </c>
     </row>
@@ -863,14 +910,17 @@
       <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -880,14 +930,17 @@
       <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -897,14 +950,17 @@
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -914,14 +970,17 @@
       <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -931,14 +990,17 @@
       <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -948,14 +1010,17 @@
       <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -965,10 +1030,13 @@
       <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22">
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
         <v>2</v>
       </c>
     </row>
